--- a/biology/Médecine/Tubercule_du_muscle_carré_fémoral/Tubercule_du_muscle_carré_fémoral.xlsx
+++ b/biology/Médecine/Tubercule_du_muscle_carré_fémoral/Tubercule_du_muscle_carré_fémoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tubercule_du_muscle_carr%C3%A9_f%C3%A9moral</t>
+          <t>Tubercule_du_muscle_carré_fémoral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le tubercule du muscle carré fémoral (ou tubercule du carré crural) est un petit tubercule situé sur la partie supérieure du fémur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tubercule_du_muscle_carr%C3%A9_f%C3%A9moral</t>
+          <t>Tubercule_du_muscle_carré_fémoral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tubercule du muscle carré fémoral est une saillie régulière située à la jonction du tiers supérieur et des deux tiers inférieurs de la crête inter-trochantérique.
 Il sert de point d'insertion du muscle carré fémoral.
-Variation
-La taille du tubercule carré varie. Il n'est pas toujours situé sur la crête inter-trochantérique.Le tubercule du muscle carré fémoral peut s'étendre sur les zones adjacentes : la face postérieure du grand trochanter ou le col fémoral.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tubercule_du_muscle_carré_fémoral</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tubercule_du_muscle_carr%C3%A9_f%C3%A9moral</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille du tubercule carré varie. Il n'est pas toujours situé sur la crête inter-trochantérique.Le tubercule du muscle carré fémoral peut s'étendre sur les zones adjacentes : la face postérieure du grand trochanter ou le col fémoral.
 </t>
         </is>
       </c>
